--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EBDCD6-4A7C-489F-A18F-DB50537390B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC1D194-79E3-4FDD-8C17-0449ED9AF843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="2460" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,26 @@
   </si>
   <si>
     <t>0.0240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.883</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -1384,16 +1404,36 @@
       <c r="N32" s="23"/>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E33" s="22"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="23"/>
+      <c r="E33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E34" s="22"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC1D194-79E3-4FDD-8C17-0449ED9AF843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE366E63-780A-45E1-92FF-5E1E4E682F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2460" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6372" yWindow="1860" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,130 @@
   </si>
   <si>
     <t>0.883</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>197/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.918</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 256, 256, 256, 64, 64, 256, 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 256, 256, 256, 128, 128, 256, 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.932</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -1436,100 +1560,260 @@
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E34" s="22"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="23"/>
+      <c r="E34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E35" s="22"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="23"/>
+      <c r="E35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E36" s="22"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="23"/>
+      <c r="E36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E37" s="22"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="23"/>
+      <c r="E37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E38" s="22"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="23"/>
+      <c r="E38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E39" s="22"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="23"/>
+      <c r="E39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N39" s="23" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E40" s="22"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="23"/>
+      <c r="E40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E41" s="22"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="23"/>
+      <c r="E41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E42" s="22"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE366E63-780A-45E1-92FF-5E1E4E682F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BF093C-E20D-4CC3-AB83-DC424EB60618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6372" yWindow="1860" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BF093C-E20D-4CC3-AB83-DC424EB60618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261415C-50BE-426A-8B2B-08181324D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6372" yWindow="1860" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5388" yWindow="2316" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,30 @@
   </si>
   <si>
     <t>0.932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discon+EDON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Con+EDON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2, 256, 256, 256, 512, 512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.885</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -1816,24 +1840,56 @@
       </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E42" s="22"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="23"/>
+      <c r="E42" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E43" s="22"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="E43" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B261415C-50BE-426A-8B2B-08181324D446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B4527-2072-4995-BB0D-0CDB365E0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5388" yWindow="2316" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6144" yWindow="876" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,6 +431,130 @@
   </si>
   <si>
     <t>0.885</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2, 256, 256, 256,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 256, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2, 256, 256, 256,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.931</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1001,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -1890,30 +2014,70 @@
       <c r="J43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="23"/>
+      <c r="K43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E44" s="22"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="23"/>
+      <c r="E44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N44" s="23" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E45" s="22"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="E45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067B4527-2072-4995-BB0D-0CDB365E0013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BA117-EC35-4358-B7B5-CA9945956C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6144" yWindow="876" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="145">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -378,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2, 256, 256, 256, 64, 64, 256, 512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>166/200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +387,6 @@
   </si>
   <si>
     <t>0.919</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2, 256, 256, 256, 128, 128, 256, 512</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,11 +542,461 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.931</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>183/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64, 64, 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2, 256, 256, 256,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 32, 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64, 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32, 32,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32, 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16, 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.892</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">64, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.525</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.945</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入归一化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标转置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.948</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 256, 512, 512, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>128, 128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 512, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 128, 128, 128, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32, 32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.942</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_layer[512, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.925</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2, 64, 128, 256, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64, 64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 256, 512</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,16 +1565,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E8:N428"/>
+  <dimension ref="B8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="3.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="46.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="50.33203125" style="1" customWidth="1"/>
@@ -1675,7 +2119,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E33" s="22" t="s">
         <v>13</v>
       </c>
@@ -1683,7 +2127,7 @@
         <v>39</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>60</v>
@@ -1707,7 +2151,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E34" s="22" t="s">
         <v>13</v>
       </c>
@@ -1715,7 +2159,7 @@
         <v>39</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>41</v>
@@ -1739,7 +2183,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E35" s="22" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +2191,7 @@
         <v>39</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>41</v>
@@ -1771,7 +2215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E36" s="22" t="s">
         <v>13</v>
       </c>
@@ -1779,7 +2223,7 @@
         <v>70</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>41</v>
@@ -1803,7 +2247,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E37" s="22" t="s">
         <v>13</v>
       </c>
@@ -1811,7 +2255,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>78</v>
@@ -1835,7 +2279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E38" s="22" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +2287,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>79</v>
@@ -1867,7 +2311,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E39" s="22" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +2319,7 @@
         <v>74</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>41</v>
@@ -1899,7 +2343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E40" s="22" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +2351,7 @@
         <v>74</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>41</v>
@@ -1919,19 +2363,19 @@
         <v>9</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>85</v>
       </c>
       <c r="M40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N40" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E41" s="22" t="s">
         <v>13</v>
       </c>
@@ -1939,7 +2383,7 @@
         <v>74</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>41</v>
@@ -1954,24 +2398,24 @@
         <v>27</v>
       </c>
       <c r="L41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N41" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M41" s="4" t="s">
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E42" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="N41" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E42" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>41</v>
@@ -1983,27 +2427,27 @@
         <v>9</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E43" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>41</v>
@@ -2021,13 +2465,13 @@
         <v>71</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E44" s="22" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2479,7 @@
         <v>74</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>41</v>
@@ -2050,16 +2494,16 @@
         <v>61</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.4">
       <c r="E45" s="22" t="s">
         <v>13</v>
       </c>
@@ -2067,7 +2511,7 @@
         <v>74</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>41</v>
@@ -2078,132 +2522,377 @@
       <c r="J45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="23"/>
-    </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E46" s="22"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="23"/>
-    </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E47" s="22"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="23"/>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E48" s="22"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="23"/>
-    </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E49" s="22"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="23"/>
-    </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E50" s="22"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="23"/>
-    </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E51" s="22"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="23"/>
-    </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E52" s="22"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="23"/>
-    </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E53" s="22"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="23"/>
-    </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E54" s="22"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="23"/>
-    </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E55" s="22"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E46" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="E47" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="D48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="D49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N51" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C53" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N53" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="23"/>
     </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E56" s="22"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -2215,7 +2904,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="23"/>
     </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E57" s="22"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -2227,7 +2916,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="23"/>
     </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E58" s="22"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -2239,7 +2928,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="23"/>
     </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E59" s="22"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -2251,7 +2940,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="23"/>
     </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E60" s="22"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -2263,7 +2952,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="23"/>
     </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E61" s="22"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -2275,7 +2964,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="23"/>
     </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E62" s="22"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -2287,7 +2976,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="23"/>
     </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E63" s="22"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -2299,7 +2988,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="23"/>
     </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E64" s="22"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BA117-EC35-4358-B7B5-CA9945956C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E03C56-79B7-4198-AA9C-2E2F19DD036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7596" yWindow="1524" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="152">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,32 +971,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2, 64, 128, 256, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>64, 64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 256, 512</t>
-    </r>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.946</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1567,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B8:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -2873,10 +2876,10 @@
         <v>13</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>41</v>
@@ -2887,22 +2890,56 @@
       <c r="J55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="23"/>
+      <c r="K55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E56" s="22"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="23"/>
+      <c r="C56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E57" s="22"/>

--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProductCode\OpenFWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E03C56-79B7-4198-AA9C-2E2F19DD036A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3853DB85-F492-439B-8A08-51BB9A60704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7596" yWindow="1524" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="163">
   <si>
     <t>TrunkNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,6 +1000,50 @@
   </si>
   <si>
     <t>0.946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20个数据文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个数据文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.00039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9903</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0254</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1286,6 +1330,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1568,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B8:N428"/>
+  <dimension ref="B8:P428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
@@ -1597,6 +1647,9 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G8" s="24" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E9" s="17" t="s">
@@ -2113,7 +2166,9 @@
     <row r="32" spans="5:14" x14ac:dyDescent="0.4">
       <c r="E32" s="22"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3037,7 +3092,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="23"/>
     </row>
-    <row r="65" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E65" s="22"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -3049,7 +3104,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="23"/>
     </row>
-    <row r="66" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E66" s="22"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3061,7 +3116,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="23"/>
     </row>
-    <row r="67" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E67" s="22"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -3073,7 +3128,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="23"/>
     </row>
-    <row r="68" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E68" s="22"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -3085,10 +3140,9 @@
       <c r="M68" s="4"/>
       <c r="N68" s="23"/>
     </row>
-    <row r="69" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E69" s="22"/>
       <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -3097,55 +3151,116 @@
       <c r="M69" s="4"/>
       <c r="N69" s="23"/>
     </row>
-    <row r="70" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E70" s="22"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="23"/>
-    </row>
-    <row r="71" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E71" s="22"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="23"/>
-    </row>
-    <row r="72" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E72" s="22"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="23"/>
-    </row>
-    <row r="73" spans="5:14" x14ac:dyDescent="0.4">
-      <c r="E73" s="22"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+    <row r="70" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="G70" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="E71" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N71" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="P71" s="25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="72" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="L73" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="M73" s="4"/>
       <c r="N73" s="23"/>
-    </row>
-    <row r="74" spans="5:14" x14ac:dyDescent="0.4">
+      <c r="P73" s="25">
+        <v>0.15416666666666667</v>
+      </c>
+    </row>
+    <row r="74" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E74" s="22"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -3157,7 +3272,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="23"/>
     </row>
-    <row r="75" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E75" s="22"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3169,7 +3284,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="23"/>
     </row>
-    <row r="76" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E76" s="22"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -3181,7 +3296,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="23"/>
     </row>
-    <row r="77" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E77" s="22"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -3193,7 +3308,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="23"/>
     </row>
-    <row r="78" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E78" s="22"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -3205,7 +3320,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="23"/>
     </row>
-    <row r="79" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E79" s="22"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -3217,7 +3332,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="23"/>
     </row>
-    <row r="80" spans="5:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.4">
       <c r="E80" s="22"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
